--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>adalat</t>
   </si>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>atorva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭센다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,147 +705,152 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A56">
-    <sortState ref="A2:A56">
+    <sortState ref="A2:A57">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>

--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>adalat</t>
   </si>
@@ -218,6 +218,337 @@
   </si>
   <si>
     <t>삭센다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다비듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아낙성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아세라노정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레미피드정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마프론정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥리카캡슐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자누매트정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글리피딘정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세비카정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토르셈정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토르바정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비레트정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글리킨연질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레세틴정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라베스란정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔테론정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSAIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오마코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아서틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로스원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토넷정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸다벨정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토칸정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페브릭정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카리메이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레날빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라식스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니페딕스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱실란트</t>
+  </si>
+  <si>
+    <t>훼로바유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라식스정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디오르탄정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로맥정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로포타현탁액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스레놀산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아다핀오스모서방정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세보칸정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱실란트디알캡슐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로바젯정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자니딥정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훼로바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라젠타정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레나메진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릭시아나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올메텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리바로젯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이가탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라빅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디오반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤르벤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페브락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자누비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤조다이아제핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아달라트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥포정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valtrex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neotigasone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안탁스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torsemide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSAID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doxycycline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이손정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라베듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laxative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edoxaban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네시나액트정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로수젯정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피딜슈프라정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유로박솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥시움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스포마이신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +569,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -264,12 +611,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,307 +901,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E106" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:A56">
-    <sortState ref="A2:A57">
-      <sortCondition ref="A1:A56"/>
+  <autoFilter ref="A1:A52">
+    <sortState ref="A2:A140">
+      <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:A51">

--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>adalat</t>
   </si>
@@ -95,460 +95,477 @@
     <t>아모스타정</t>
   </si>
   <si>
+    <t>아트로정</t>
+  </si>
+  <si>
+    <t>엘리퀴스</t>
+  </si>
+  <si>
+    <t>인벨라정</t>
+  </si>
+  <si>
+    <t>제미글로정</t>
+  </si>
+  <si>
+    <t>직듀오</t>
+  </si>
+  <si>
+    <t>카리메트산</t>
+  </si>
+  <si>
+    <t>크레메진</t>
+  </si>
+  <si>
+    <t>타스나</t>
+  </si>
+  <si>
+    <t>텔미플러스</t>
+  </si>
+  <si>
+    <t>페브릭</t>
+  </si>
+  <si>
+    <t>펜잘</t>
+  </si>
+  <si>
+    <t>하이페질정</t>
+  </si>
+  <si>
+    <t>항고혈압제</t>
+  </si>
+  <si>
+    <t>프레탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디아미크롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트레스토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자렐토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코다론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이캡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테넬리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자디앙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아젯듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코푸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리나치올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루펜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울프라셑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카맥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로디핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plavix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atorva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭센다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다비듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아낙성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아세라노정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레미피드정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마프론정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥리카캡슐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자누매트정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글리피딘정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세비카정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토르셈정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토르바정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비레트정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글리킨연질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레세틴정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라베스란정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔테론정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSAIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오마코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아서틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로스원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토넷정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸다벨정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토칸정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페브릭정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카리메이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레날빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라식스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니페딕스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱실란트</t>
+  </si>
+  <si>
+    <t>훼로바유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라식스정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디오르탄정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로맥정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로포타현탁액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스레놀산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아다핀오스모서방정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세보칸정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱실란트디알캡슐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로바젯정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자니딥정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훼로바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라젠타정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레나메진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릭시아나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올메텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리바로젯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이가탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라빅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디오반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤르벤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페브락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자누비아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤조다이아제핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아달라트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥포정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valtrex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neotigasone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안탁스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torsemide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSAID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doxycycline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이손정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라베듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laxative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edoxaban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네시나액트정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로수젯정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피딜슈프라정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유로박솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥시움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스포마이신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>아토르바스타틴정</t>
-  </si>
-  <si>
-    <t>아트로정</t>
-  </si>
-  <si>
-    <t>엘리퀴스</t>
-  </si>
-  <si>
-    <t>인벨라정</t>
-  </si>
-  <si>
-    <t>제미글로정</t>
-  </si>
-  <si>
-    <t>직듀오</t>
-  </si>
-  <si>
-    <t>카리메트산</t>
-  </si>
-  <si>
-    <t>크레메진</t>
-  </si>
-  <si>
-    <t>타스나</t>
-  </si>
-  <si>
-    <t>텔미플러스</t>
-  </si>
-  <si>
-    <t>페브릭</t>
-  </si>
-  <si>
-    <t>펜잘</t>
-  </si>
-  <si>
-    <t>하이페질정</t>
-  </si>
-  <si>
-    <t>항고혈압제</t>
-  </si>
-  <si>
-    <t>프레탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디아미크롱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔트레스토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자렐토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코다론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이캡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테넬리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자디앙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아젯듀오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코푸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리나치올</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>words</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브루펜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울프라셑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디카맥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로디핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aspirin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plavix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atorva</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭센다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다비듀오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아낙성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아세라노정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레미피드정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마프론정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥리카캡슐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자누매트정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글리피딘정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세비카정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토르셈정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아토르바정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네비레트정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글리킨연질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알레세틴정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라베스란정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔테론정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSAIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오마코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나롱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아서틸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클로스원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아토넷정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칸다벨정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아토칸정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페브릭정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카리메이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레날빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라식스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니페딕스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덱실란트</t>
-  </si>
-  <si>
-    <t>훼로바유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라식스정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디오르탄정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로맥정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로포타현탁액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스레놀산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아다핀오스모서방정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세보칸정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덱실란트디알캡슐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로바젯정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자니딥정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훼로바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트라젠타정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레나메진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릭시아나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올메텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리바로젯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이가탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라빅스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디오반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리피토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤르벤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페브락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자누비아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤조다이아제핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아달라트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥포정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lasix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valtrex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neotigasone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안탁스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torsemide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSAID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doxycycline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>torem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이손정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울트라셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라베듀오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>laxative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edoxaban</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네시나액트정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마릴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로수젯정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리피딜슈프라정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유로박솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펜폴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥시움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스포마이신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카비드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토르바스타틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔테론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이슈머산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -926,12 +943,12 @@
     </row>
     <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,7 +958,7 @@
     </row>
     <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -961,12 +978,12 @@
     </row>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -976,22 +993,22 @@
     </row>
     <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1001,12 +1018,12 @@
     </row>
     <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1016,7 +1033,7 @@
     </row>
     <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1026,17 +1043,17 @@
     </row>
     <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,12 +1063,12 @@
     </row>
     <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1061,17 +1078,17 @@
     </row>
     <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1081,22 +1098,22 @@
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1106,42 +1123,42 @@
     </row>
     <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1151,17 +1168,17 @@
     </row>
     <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1188,7 @@
     </row>
     <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1181,7 +1198,7 @@
     </row>
     <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1191,52 +1208,52 @@
     </row>
     <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1246,12 +1263,12 @@
     </row>
     <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1261,7 +1278,7 @@
     </row>
     <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1271,17 +1288,17 @@
     </row>
     <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1291,22 +1308,22 @@
     </row>
     <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1316,310 +1333,322 @@
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1628,7 +1657,7 @@
     <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:A52">
-    <sortState ref="A2:A140">
+    <sortState ref="A2:A143">
       <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>

--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>adalat</t>
   </si>
@@ -566,6 +566,10 @@
   </si>
   <si>
     <t>케이슈머산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모딘정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,137 +1332,137 @@
     </row>
     <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -1466,190 +1470,194 @@
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1657,7 +1665,7 @@
     <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:A52">
-    <sortState ref="A2:A143">
+    <sortState ref="A2:A144">
       <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>

--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuh\Desktop\의무기록 분석을 통한 진단코드 추천 AI 시스템 개발\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\close\Downloads\6_dictionary_verb.xlsx_240514\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>adalat</t>
   </si>
@@ -570,13 +570,33 @@
   </si>
   <si>
     <t>아모딘정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글리아타민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암로디핀정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라바졸정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨엠피나정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐미날</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,402 +1087,402 @@
     </row>
     <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -1470,202 +1490,222 @@
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:A52">
-    <sortState ref="A2:A144">
+    <sortState ref="A2:A149">
       <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>

--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>adalat</t>
   </si>
@@ -590,6 +590,46 @@
   </si>
   <si>
     <t>큐미날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투제오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세비카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베타미가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토비애즈서방정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벨라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펠루비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모잘틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레스토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸대암로정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1297,192 +1337,192 @@
     </row>
     <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -1490,222 +1530,312 @@
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="160" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:A52">
-    <sortState ref="A2:A149">
+    <sortState ref="A2:A159">
       <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>

--- a/dictionary_medication.xlsx
+++ b/dictionary_medication.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\close\Downloads\6_dictionary_verb.xlsx_240514\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuh\Desktop\의무기록 분석을 통한 진단코드 추천 AI 시스템 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>adalat</t>
   </si>
@@ -630,13 +630,57 @@
   </si>
   <si>
     <t>칸대암로정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바라크루드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로수바미브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레시바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안플라그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이드린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도베실산칼슘수화물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔시움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비리어드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아토젯정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아펜팔정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아모잘탄정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1202,327 +1246,327 @@
     </row>
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -1530,286 +1574,330 @@
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1835,7 +1923,7 @@
     <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:A52">
-    <sortState ref="A2:A159">
+    <sortState ref="A2:A170">
       <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>
